--- a/biology/Histoire de la zoologie et de la botanique/François_Antoine_Roucel/François_Antoine_Roucel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Antoine_Roucel/François_Antoine_Roucel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Antoine_Roucel</t>
+          <t>François_Antoine_Roucel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Antoine Roucel (Durlach, 1735 - Alost, 6 octobre 1831[1]) est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Antoine Roucel (Durlach, 1735 - Alost, 6 octobre 1831) est un botaniste français.
 Sa Flore du nord de la France couvre une bonne partie de l'actuelle Belgique (la Région flamande, la Région de Bruxelles-Capitale et la province du Brabant wallon) annexée par la France en 1795.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Antoine_Roucel</t>
+          <t>François_Antoine_Roucel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1792 : Traité des plantes les moins fréquentes qui croissent naturellement dans les environs des villes de Gand, d'Alost, de Termonde &amp; Bruxelles, rapportées sous les dénominations des Modernes et des Anciens, &amp; arrangées suivant le système de Linnaeus, Paris, Chez MM. Bossange, Bruxelles, Chez Lemaire.
 1803 : Flore du Nord de la France ou Description des plantes indigènes et de celles cultivées dans les départemens de la Lys, de l'Escaut, de la Dyle et des Deux-Nèthes, y compris les plantes qui naissent dans les pays limitrophes de ces départemens, Paris, Chez Me Veuve Richard, 2 volumes.
